--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Adm</t>
   </si>
   <si>
     <t>Calcrl</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2535238362823</v>
+        <v>18.73555533333333</v>
       </c>
       <c r="H2">
-        <v>18.2535238362823</v>
+        <v>56.206666</v>
       </c>
       <c r="I2">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="J2">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.2266555626678</v>
+        <v>46.12061933333334</v>
       </c>
       <c r="N2">
-        <v>45.2266555626678</v>
+        <v>138.361858</v>
       </c>
       <c r="O2">
-        <v>0.5023547620218975</v>
+        <v>0.4800257783842542</v>
       </c>
       <c r="P2">
-        <v>0.5023547620218975</v>
+        <v>0.4800257783842541</v>
       </c>
       <c r="Q2">
-        <v>825.5458353484862</v>
+        <v>864.0954155272699</v>
       </c>
       <c r="R2">
-        <v>825.5458353484862</v>
+        <v>7776.858739745428</v>
       </c>
       <c r="S2">
-        <v>0.242968494042899</v>
+        <v>0.2255780760924599</v>
       </c>
       <c r="T2">
-        <v>0.242968494042899</v>
+        <v>0.2255780760924599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2535238362823</v>
+        <v>18.73555533333333</v>
       </c>
       <c r="H3">
-        <v>18.2535238362823</v>
+        <v>56.206666</v>
       </c>
       <c r="I3">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="J3">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.0546725650494</v>
+        <v>35.24551066666667</v>
       </c>
       <c r="N3">
-        <v>34.0546725650494</v>
+        <v>105.736532</v>
       </c>
       <c r="O3">
-        <v>0.3782620385989892</v>
+        <v>0.3668370879852712</v>
       </c>
       <c r="P3">
-        <v>0.3782620385989892</v>
+        <v>0.3668370879852712</v>
       </c>
       <c r="Q3">
-        <v>621.6177774029181</v>
+        <v>660.3442153469236</v>
       </c>
       <c r="R3">
-        <v>621.6177774029181</v>
+        <v>5943.097938122312</v>
       </c>
       <c r="S3">
-        <v>0.1829499087499188</v>
+        <v>0.1723874180791127</v>
       </c>
       <c r="T3">
-        <v>0.1829499087499188</v>
+        <v>0.1723874180791127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2535238362823</v>
+        <v>18.73555533333333</v>
       </c>
       <c r="H4">
-        <v>18.2535238362823</v>
+        <v>56.206666</v>
       </c>
       <c r="I4">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="J4">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.99082558664396</v>
+        <v>8.551794666666666</v>
       </c>
       <c r="N4">
-        <v>6.99082558664396</v>
+        <v>25.655384</v>
       </c>
       <c r="O4">
-        <v>0.07765054656869178</v>
+        <v>0.08900751877982832</v>
       </c>
       <c r="P4">
-        <v>0.07765054656869178</v>
+        <v>0.08900751877982831</v>
       </c>
       <c r="Q4">
-        <v>127.6072014810977</v>
+        <v>160.2226221766382</v>
       </c>
       <c r="R4">
-        <v>127.6072014810977</v>
+        <v>1442.003599589744</v>
       </c>
       <c r="S4">
-        <v>0.03755639995422328</v>
+        <v>0.04182722209565354</v>
       </c>
       <c r="T4">
-        <v>0.03755639995422328</v>
+        <v>0.04182722209565354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.2535238362823</v>
+        <v>18.73555533333333</v>
       </c>
       <c r="H5">
-        <v>18.2535238362823</v>
+        <v>56.206666</v>
       </c>
       <c r="I5">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="J5">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.75716218310888</v>
+        <v>6.161539</v>
       </c>
       <c r="N5">
-        <v>3.75716218310888</v>
+        <v>18.484617</v>
       </c>
       <c r="O5">
-        <v>0.04173265281042152</v>
+        <v>0.06412961485064632</v>
       </c>
       <c r="P5">
-        <v>0.04173265281042152</v>
+        <v>0.0641296148506463</v>
       </c>
       <c r="Q5">
-        <v>68.5814494661564</v>
+        <v>115.4398548729913</v>
       </c>
       <c r="R5">
-        <v>68.5814494661564</v>
+        <v>1038.958693856922</v>
       </c>
       <c r="S5">
-        <v>0.02018438078491089</v>
+        <v>0.03013637139916101</v>
       </c>
       <c r="T5">
-        <v>0.02018438078491089</v>
+        <v>0.03013637139916101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.4869439513544</v>
+        <v>19.55844</v>
       </c>
       <c r="H6">
-        <v>19.4869439513544</v>
+        <v>58.67532</v>
       </c>
       <c r="I6">
-        <v>0.5163408164680481</v>
+        <v>0.490568851675588</v>
       </c>
       <c r="J6">
-        <v>0.5163408164680481</v>
+        <v>0.4905688516755881</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.2266555626678</v>
+        <v>46.12061933333334</v>
       </c>
       <c r="N6">
-        <v>45.2266555626678</v>
+        <v>138.361858</v>
       </c>
       <c r="O6">
-        <v>0.5023547620218975</v>
+        <v>0.4800257783842542</v>
       </c>
       <c r="P6">
-        <v>0.5023547620218975</v>
+        <v>0.4800257783842541</v>
       </c>
       <c r="Q6">
-        <v>881.3293020569182</v>
+        <v>902.0473659938401</v>
       </c>
       <c r="R6">
-        <v>881.3293020569182</v>
+        <v>8118.426293944561</v>
       </c>
       <c r="S6">
-        <v>0.2593862679789986</v>
+        <v>0.2354856948766439</v>
       </c>
       <c r="T6">
-        <v>0.2593862679789986</v>
+        <v>0.2354856948766439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.4869439513544</v>
+        <v>19.55844</v>
       </c>
       <c r="H7">
-        <v>19.4869439513544</v>
+        <v>58.67532</v>
       </c>
       <c r="I7">
-        <v>0.5163408164680481</v>
+        <v>0.490568851675588</v>
       </c>
       <c r="J7">
-        <v>0.5163408164680481</v>
+        <v>0.4905688516755881</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.0546725650494</v>
+        <v>35.24551066666667</v>
       </c>
       <c r="N7">
-        <v>34.0546725650494</v>
+        <v>105.736532</v>
       </c>
       <c r="O7">
-        <v>0.3782620385989892</v>
+        <v>0.3668370879852712</v>
       </c>
       <c r="P7">
-        <v>0.3782620385989892</v>
+        <v>0.3668370879852712</v>
       </c>
       <c r="Q7">
-        <v>663.6214955568441</v>
+        <v>689.3472056433601</v>
       </c>
       <c r="R7">
-        <v>663.6214955568441</v>
+        <v>6204.124850790241</v>
       </c>
       <c r="S7">
-        <v>0.1953121298490704</v>
+        <v>0.1799588490049511</v>
       </c>
       <c r="T7">
-        <v>0.1953121298490704</v>
+        <v>0.1799588490049512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.4869439513544</v>
+        <v>19.55844</v>
       </c>
       <c r="H8">
-        <v>19.4869439513544</v>
+        <v>58.67532</v>
       </c>
       <c r="I8">
-        <v>0.5163408164680481</v>
+        <v>0.490568851675588</v>
       </c>
       <c r="J8">
-        <v>0.5163408164680481</v>
+        <v>0.4905688516755881</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.99082558664396</v>
+        <v>8.551794666666666</v>
       </c>
       <c r="N8">
-        <v>6.99082558664396</v>
+        <v>25.655384</v>
       </c>
       <c r="O8">
-        <v>0.07765054656869178</v>
+        <v>0.08900751877982832</v>
       </c>
       <c r="P8">
-        <v>0.07765054656869178</v>
+        <v>0.08900751877982831</v>
       </c>
       <c r="Q8">
-        <v>136.2298263806251</v>
+        <v>167.25976288032</v>
       </c>
       <c r="R8">
-        <v>136.2298263806251</v>
+        <v>1505.33786592288</v>
       </c>
       <c r="S8">
-        <v>0.0400941466144685</v>
+        <v>0.04366431627831371</v>
       </c>
       <c r="T8">
-        <v>0.0400941466144685</v>
+        <v>0.04366431627831371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>19.55844</v>
+      </c>
+      <c r="H9">
+        <v>58.67532</v>
+      </c>
+      <c r="I9">
+        <v>0.490568851675588</v>
+      </c>
+      <c r="J9">
+        <v>0.4905688516755881</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.161539</v>
+      </c>
+      <c r="N9">
+        <v>18.484617</v>
+      </c>
+      <c r="O9">
+        <v>0.06412961485064632</v>
+      </c>
+      <c r="P9">
+        <v>0.0641296148506463</v>
+      </c>
+      <c r="Q9">
+        <v>120.51009083916</v>
+      </c>
+      <c r="R9">
+        <v>1084.59081755244</v>
+      </c>
+      <c r="S9">
+        <v>0.0314599915156793</v>
+      </c>
+      <c r="T9">
+        <v>0.0314599915156793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3162143333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.9486429999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.007931353542853873</v>
+      </c>
+      <c r="J10">
+        <v>0.007931353542853875</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>46.12061933333334</v>
+      </c>
+      <c r="N10">
+        <v>138.361858</v>
+      </c>
+      <c r="O10">
+        <v>0.4800257783842542</v>
+      </c>
+      <c r="P10">
+        <v>0.4800257783842541</v>
+      </c>
+      <c r="Q10">
+        <v>14.58400089541045</v>
+      </c>
+      <c r="R10">
+        <v>131.256008058694</v>
+      </c>
+      <c r="S10">
+        <v>0.003807254158049143</v>
+      </c>
+      <c r="T10">
+        <v>0.003807254158049143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3162143333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.9486429999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.007931353542853873</v>
+      </c>
+      <c r="J11">
+        <v>0.007931353542853875</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>35.24551066666667</v>
+      </c>
+      <c r="N11">
+        <v>105.736532</v>
+      </c>
+      <c r="O11">
+        <v>0.3668370879852712</v>
+      </c>
+      <c r="P11">
+        <v>0.3668370879852712</v>
+      </c>
+      <c r="Q11">
+        <v>11.14513565845289</v>
+      </c>
+      <c r="R11">
+        <v>100.306220926076</v>
+      </c>
+      <c r="S11">
+        <v>0.002909514637442179</v>
+      </c>
+      <c r="T11">
+        <v>0.00290951463744218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3162143333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.9486429999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.007931353542853873</v>
+      </c>
+      <c r="J12">
+        <v>0.007931353542853875</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.551794666666666</v>
+      </c>
+      <c r="N12">
+        <v>25.655384</v>
+      </c>
+      <c r="O12">
+        <v>0.08900751877982832</v>
+      </c>
+      <c r="P12">
+        <v>0.08900751877982831</v>
+      </c>
+      <c r="Q12">
+        <v>2.704200049323555</v>
+      </c>
+      <c r="R12">
+        <v>24.33780044391199</v>
+      </c>
+      <c r="S12">
+        <v>0.0007059500994150241</v>
+      </c>
+      <c r="T12">
+        <v>0.0007059500994150241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3162143333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.9486429999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.007931353542853873</v>
+      </c>
+      <c r="J13">
+        <v>0.007931353542853875</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.161539</v>
+      </c>
+      <c r="N13">
+        <v>18.484617</v>
+      </c>
+      <c r="O13">
+        <v>0.06412961485064632</v>
+      </c>
+      <c r="P13">
+        <v>0.0641296148506463</v>
+      </c>
+      <c r="Q13">
+        <v>1.948366947192333</v>
+      </c>
+      <c r="R13">
+        <v>17.535302524731</v>
+      </c>
+      <c r="S13">
+        <v>0.0005086346479475281</v>
+      </c>
+      <c r="T13">
+        <v>0.0005086346479475281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>19.4869439513544</v>
-      </c>
-      <c r="H9">
-        <v>19.4869439513544</v>
-      </c>
-      <c r="I9">
-        <v>0.5163408164680481</v>
-      </c>
-      <c r="J9">
-        <v>0.5163408164680481</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.75716218310888</v>
-      </c>
-      <c r="N9">
-        <v>3.75716218310888</v>
-      </c>
-      <c r="O9">
-        <v>0.04173265281042152</v>
-      </c>
-      <c r="P9">
-        <v>0.04173265281042152</v>
-      </c>
-      <c r="Q9">
-        <v>73.21560887839109</v>
-      </c>
-      <c r="R9">
-        <v>73.21560887839109</v>
-      </c>
-      <c r="S9">
-        <v>0.02154827202551063</v>
-      </c>
-      <c r="T9">
-        <v>0.02154827202551063</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.258689333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.776068</v>
+      </c>
+      <c r="I14">
+        <v>0.03157070711517098</v>
+      </c>
+      <c r="J14">
+        <v>0.03157070711517099</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>46.12061933333334</v>
+      </c>
+      <c r="N14">
+        <v>138.361858</v>
+      </c>
+      <c r="O14">
+        <v>0.4800257783842542</v>
+      </c>
+      <c r="P14">
+        <v>0.4800257783842541</v>
+      </c>
+      <c r="Q14">
+        <v>58.05153160159378</v>
+      </c>
+      <c r="R14">
+        <v>522.463784414344</v>
+      </c>
+      <c r="S14">
+        <v>0.01515475325710126</v>
+      </c>
+      <c r="T14">
+        <v>0.01515475325710126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.258689333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.776068</v>
+      </c>
+      <c r="I15">
+        <v>0.03157070711517098</v>
+      </c>
+      <c r="J15">
+        <v>0.03157070711517099</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>35.24551066666667</v>
+      </c>
+      <c r="N15">
+        <v>105.736532</v>
+      </c>
+      <c r="O15">
+        <v>0.3668370879852712</v>
+      </c>
+      <c r="P15">
+        <v>0.3668370879852712</v>
+      </c>
+      <c r="Q15">
+        <v>44.36314832401955</v>
+      </c>
+      <c r="R15">
+        <v>399.2683349161761</v>
+      </c>
+      <c r="S15">
+        <v>0.01158130626376521</v>
+      </c>
+      <c r="T15">
+        <v>0.01158130626376521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.258689333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.776068</v>
+      </c>
+      <c r="I16">
+        <v>0.03157070711517098</v>
+      </c>
+      <c r="J16">
+        <v>0.03157070711517099</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.551794666666666</v>
+      </c>
+      <c r="N16">
+        <v>25.655384</v>
+      </c>
+      <c r="O16">
+        <v>0.08900751877982832</v>
+      </c>
+      <c r="P16">
+        <v>0.08900751877982831</v>
+      </c>
+      <c r="Q16">
+        <v>10.76405272779022</v>
+      </c>
+      <c r="R16">
+        <v>96.87647455011199</v>
+      </c>
+      <c r="S16">
+        <v>0.002810030306446041</v>
+      </c>
+      <c r="T16">
+        <v>0.002810030306446041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.258689333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.776068</v>
+      </c>
+      <c r="I17">
+        <v>0.03157070711517098</v>
+      </c>
+      <c r="J17">
+        <v>0.03157070711517099</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.161539</v>
+      </c>
+      <c r="N17">
+        <v>18.484617</v>
+      </c>
+      <c r="O17">
+        <v>0.06412961485064632</v>
+      </c>
+      <c r="P17">
+        <v>0.0641296148506463</v>
+      </c>
+      <c r="Q17">
+        <v>7.755463416217333</v>
+      </c>
+      <c r="R17">
+        <v>69.799170745956</v>
+      </c>
+      <c r="S17">
+        <v>0.002024617287858474</v>
+      </c>
+      <c r="T17">
+        <v>0.002024617287858474</v>
       </c>
     </row>
   </sheetData>
